--- a/data/trans_orig/P16A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2485,7 +2485,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4416,7 +4416,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6347,7 +6347,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Edad-trans_orig.xlsx
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002686207834856695</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009517934856315373</v>
+        <v>0.01121678308111022</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6725</v>
+        <v>5841</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002984775837451565</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01075204982601943</v>
+        <v>0.009338484343868742</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -955,19 +955,19 @@
         <v>3843</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1033</v>
+        <v>978</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9705</v>
+        <v>9669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002823426682208657</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007591279761270047</v>
+        <v>0.0007183193741198091</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007131026771890442</v>
+        <v>0.007104432635400697</v>
       </c>
     </row>
     <row r="8">
@@ -984,7 +984,7 @@
         <v>733513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>728489</v>
+        <v>727239</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -993,7 +993,7 @@
         <v>0.9973137921651433</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9904820651436846</v>
+        <v>0.9887832169188902</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>623627</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>618769</v>
+        <v>619653</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>625494</v>
@@ -1014,7 +1014,7 @@
         <v>0.9970152241625484</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9892479501739805</v>
+        <v>0.9906615156561311</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1026,19 +1026,19 @@
         <v>1357139</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1351277</v>
+        <v>1351313</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1359949</v>
+        <v>1360004</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9971765733177913</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9928689732281093</v>
+        <v>0.9928955673645993</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.999240872023873</v>
+        <v>0.99928168062588</v>
       </c>
     </row>
     <row r="9">
@@ -1130,19 +1130,19 @@
         <v>15121</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8540</v>
+        <v>9115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24567</v>
+        <v>26053</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02371360653899239</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.013392693999022</v>
+        <v>0.01429501660337725</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03852781439573247</v>
+        <v>0.04085843521495616</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1151,19 +1151,19 @@
         <v>13534</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7385</v>
+        <v>7035</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22222</v>
+        <v>22722</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01962146032083219</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0107062303831589</v>
+        <v>0.01019969634034116</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03221837468324731</v>
+        <v>0.03294282823192962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1172,19 +1172,19 @@
         <v>28655</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19666</v>
+        <v>18717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40844</v>
+        <v>40414</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02158723332339531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01481580285754861</v>
+        <v>0.01410030406810295</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03077005539480144</v>
+        <v>0.03044649880203024</v>
       </c>
     </row>
     <row r="11">
@@ -1201,19 +1201,19 @@
         <v>622528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>613082</v>
+        <v>611596</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>629109</v>
+        <v>628534</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9762863934610077</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9614721856042676</v>
+        <v>0.9591415647850445</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.986607306000978</v>
+        <v>0.9857049833966228</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>645</v>
@@ -1222,19 +1222,19 @@
         <v>676210</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>667522</v>
+        <v>667022</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>682359</v>
+        <v>682709</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9803785396791678</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9677816253167526</v>
+        <v>0.9670571717680704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9892937696168411</v>
+        <v>0.9898003036596587</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1242</v>
@@ -1243,19 +1243,19 @@
         <v>1298739</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1286550</v>
+        <v>1286980</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1307728</v>
+        <v>1308677</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9784127666766047</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9692299446051986</v>
+        <v>0.9695535011979701</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9851841971424514</v>
+        <v>0.9858996959318971</v>
       </c>
     </row>
     <row r="12">
@@ -1347,19 +1347,19 @@
         <v>29044</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20246</v>
+        <v>18894</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41916</v>
+        <v>39310</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05594531589952272</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03899790527903841</v>
+        <v>0.03639440448118311</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08073956577366337</v>
+        <v>0.07572127896241199</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1368,19 +1368,19 @@
         <v>24832</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16355</v>
+        <v>16388</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35871</v>
+        <v>34204</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04815840502669548</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03171707366321546</v>
+        <v>0.03178107276544494</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06956608532315917</v>
+        <v>0.06633210253777214</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -1389,19 +1389,19 @@
         <v>53876</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40911</v>
+        <v>41577</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68883</v>
+        <v>68133</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05206504843315695</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03953594828742538</v>
+        <v>0.04017912657714226</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06656689511929631</v>
+        <v>0.0658427905365582</v>
       </c>
     </row>
     <row r="14">
@@ -1418,19 +1418,19 @@
         <v>490103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>477231</v>
+        <v>479837</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>498901</v>
+        <v>500253</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9440546841004773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9192604342263365</v>
+        <v>0.924278721037588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9610020947209615</v>
+        <v>0.9636055955188169</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>477</v>
@@ -1439,19 +1439,19 @@
         <v>490810</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>479771</v>
+        <v>481438</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>499287</v>
+        <v>499254</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9518415949733046</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9304339146768408</v>
+        <v>0.9336678974622283</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9682829263367846</v>
+        <v>0.9682189272345552</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>932</v>
@@ -1460,19 +1460,19 @@
         <v>980913</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>965906</v>
+        <v>966656</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>993878</v>
+        <v>993212</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.947934951566843</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9334331048807036</v>
+        <v>0.9341572094634418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9604640517125747</v>
+        <v>0.9598208734228576</v>
       </c>
     </row>
     <row r="15">
@@ -1564,19 +1564,19 @@
         <v>53108</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41231</v>
+        <v>41855</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68548</v>
+        <v>67651</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1373320509027351</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1066196872286446</v>
+        <v>0.1082347128063678</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1772592211886854</v>
+        <v>0.1749398125392021</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -1585,19 +1585,19 @@
         <v>60916</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47244</v>
+        <v>47240</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76874</v>
+        <v>77194</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1507868002182355</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1169449798419937</v>
+        <v>0.1169342565793104</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1902898346564217</v>
+        <v>0.1910807547454361</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>114</v>
@@ -1606,19 +1606,19 @@
         <v>114023</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>95705</v>
+        <v>94407</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>133658</v>
+        <v>133653</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.144206412195618</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1210394259660689</v>
+        <v>0.1193976157909038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1690378702654341</v>
+        <v>0.1690314623204312</v>
       </c>
     </row>
     <row r="17">
@@ -1635,19 +1635,19 @@
         <v>333602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>318162</v>
+        <v>319059</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>345479</v>
+        <v>344855</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.862667949097265</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8227407788113146</v>
+        <v>0.8250601874607978</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8933803127713553</v>
+        <v>0.8917652871936322</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>337</v>
@@ -1656,19 +1656,19 @@
         <v>343070</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>327112</v>
+        <v>326792</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>356742</v>
+        <v>356746</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8492131997817646</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8097101653435782</v>
+        <v>0.8089192452545638</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8830550201580063</v>
+        <v>0.8830657434206896</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>674</v>
@@ -1677,19 +1677,19 @@
         <v>676673</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>657038</v>
+        <v>657043</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>694991</v>
+        <v>696289</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.855793587804382</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.830962129734566</v>
+        <v>0.8309685376795687</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8789605740339311</v>
+        <v>0.8806023842090962</v>
       </c>
     </row>
     <row r="18">
@@ -1781,19 +1781,19 @@
         <v>51134</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39578</v>
+        <v>39884</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64515</v>
+        <v>65148</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1747687676561163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1352707384583705</v>
+        <v>0.1363151790379129</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2205017326809339</v>
+        <v>0.2226659041288555</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>91</v>
@@ -1802,19 +1802,19 @@
         <v>84966</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>70756</v>
+        <v>71099</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101615</v>
+        <v>101311</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2477605487613444</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2063257097341184</v>
+        <v>0.2073246259042717</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2963105414127971</v>
+        <v>0.2954228758411361</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>146</v>
@@ -1823,19 +1823,19 @@
         <v>136100</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115181</v>
+        <v>117505</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>155916</v>
+        <v>155497</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2141561694405862</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.181239988465428</v>
+        <v>0.1848962162151089</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2453374135862153</v>
+        <v>0.2446783855617709</v>
       </c>
     </row>
     <row r="20">
@@ -1852,19 +1852,19 @@
         <v>241449</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>228068</v>
+        <v>227435</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253005</v>
+        <v>252699</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8252312323438837</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7794982673190661</v>
+        <v>0.7773340958711445</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8647292615416294</v>
+        <v>0.8636848209620871</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>280</v>
@@ -1873,19 +1873,19 @@
         <v>257968</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>241319</v>
+        <v>241623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272178</v>
+        <v>271835</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7522394512386557</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7036894585872028</v>
+        <v>0.7045771241588636</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7936742902658815</v>
+        <v>0.7926753740957282</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>528</v>
@@ -1894,19 +1894,19 @@
         <v>499417</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>479601</v>
+        <v>480020</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>520336</v>
+        <v>518012</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7858438305594138</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7546625864137847</v>
+        <v>0.7553216144382292</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.818760011534572</v>
+        <v>0.8151037837848911</v>
       </c>
     </row>
     <row r="21">
@@ -1998,19 +1998,19 @@
         <v>40267</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30049</v>
+        <v>29699</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52644</v>
+        <v>51947</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1918529457304965</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1431705990149206</v>
+        <v>0.1415019797160981</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2508243833512172</v>
+        <v>0.247502322770331</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -2019,19 +2019,19 @@
         <v>80648</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64571</v>
+        <v>65757</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>97987</v>
+        <v>98257</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2415269948973685</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1933782843127554</v>
+        <v>0.196932732748662</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2934565059185229</v>
+        <v>0.2942626649984673</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -2040,19 +2040,19 @@
         <v>120914</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>101789</v>
+        <v>103401</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>144538</v>
+        <v>141953</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2223546680005246</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1871839013500364</v>
+        <v>0.1901482360876147</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2657974764280953</v>
+        <v>0.2610429323545028</v>
       </c>
     </row>
     <row r="23">
@@ -2069,19 +2069,19 @@
         <v>169616</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>157239</v>
+        <v>157936</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>179834</v>
+        <v>180184</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8081470542695035</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7491756166487827</v>
+        <v>0.752497677229669</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8568294009850791</v>
+        <v>0.858498020283902</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>221</v>
@@ -2090,19 +2090,19 @@
         <v>253260</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>235921</v>
+        <v>235651</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>269337</v>
+        <v>268151</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7584730051026315</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7065434940814768</v>
+        <v>0.7057373350015327</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8066217156872445</v>
+        <v>0.8030672672513378</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>400</v>
@@ -2111,19 +2111,19 @@
         <v>422877</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>399253</v>
+        <v>401838</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>442002</v>
+        <v>440390</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7776453319994755</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7342025235719047</v>
+        <v>0.7389570676454975</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8128160986499636</v>
+        <v>0.8098517639123854</v>
       </c>
     </row>
     <row r="24">
@@ -2215,19 +2215,19 @@
         <v>190649</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>165743</v>
+        <v>166153</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>217398</v>
+        <v>216846</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05820416966638154</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0506005079674793</v>
+        <v>0.05072564420296714</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06637043299411595</v>
+        <v>0.06620189561769277</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>259</v>
@@ -2236,19 +2236,19 @@
         <v>266762</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>238253</v>
+        <v>236815</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>298677</v>
+        <v>300427</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07894251104839838</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07050587476787733</v>
+        <v>0.0700802020046396</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08838687479010104</v>
+        <v>0.08890486802097994</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>456</v>
@@ -2257,19 +2257,19 @@
         <v>457412</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>413689</v>
+        <v>420110</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>501266</v>
+        <v>499339</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06873487891827212</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06216473828129911</v>
+        <v>0.06312957525298749</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07532482565275934</v>
+        <v>0.07503528001827912</v>
       </c>
     </row>
     <row r="26">
@@ -2286,19 +2286,19 @@
         <v>3084876</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3058127</v>
+        <v>3058679</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3109782</v>
+        <v>3109372</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9417958303336185</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9336295670058841</v>
+        <v>0.9337981043823073</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9493994920325209</v>
+        <v>0.9492743557970329</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3038</v>
@@ -2307,19 +2307,19 @@
         <v>3112435</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3080520</v>
+        <v>3078770</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3140944</v>
+        <v>3142382</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9210574889516017</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9116131252098991</v>
+        <v>0.9110951319790208</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9294941252321227</v>
+        <v>0.9299197979953604</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6054</v>
@@ -2328,19 +2328,19 @@
         <v>6197310</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6153456</v>
+        <v>6155383</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6241033</v>
+        <v>6234612</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9312651210817279</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9246751743472407</v>
+        <v>0.924964719981721</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9378352617187006</v>
+        <v>0.9368704247470128</v>
       </c>
     </row>
     <row r="27">
@@ -2844,19 +2844,19 @@
         <v>10456</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4644</v>
+        <v>5509</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22223</v>
+        <v>22462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01523644019964281</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006766635651202983</v>
+        <v>0.008027442923621755</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03238425012372957</v>
+        <v>0.0327327697343473</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2865,19 +2865,19 @@
         <v>5836</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1979</v>
+        <v>2072</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14895</v>
+        <v>13634</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009579985070592918</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003248671474356429</v>
+        <v>0.003400918274142331</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02444957893355565</v>
+        <v>0.02237995724437913</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -2886,19 +2886,19 @@
         <v>16292</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9409</v>
+        <v>8893</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28763</v>
+        <v>28308</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01257637122672723</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007263049111575081</v>
+        <v>0.006864574429447552</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02220297661854315</v>
+        <v>0.021852175712706</v>
       </c>
     </row>
     <row r="8">
@@ -2915,19 +2915,19 @@
         <v>675782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>664015</v>
+        <v>663776</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>681594</v>
+        <v>680729</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9847635598003572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9676157498762704</v>
+        <v>0.9672672302656526</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9932333643487969</v>
+        <v>0.9919725570763782</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>565</v>
@@ -2936,19 +2936,19 @@
         <v>603378</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>594319</v>
+        <v>595580</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>607235</v>
+        <v>607142</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9904200149294071</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9755504210664454</v>
+        <v>0.9776200427556211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9967513285256435</v>
+        <v>0.9965990817258576</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1223</v>
@@ -2957,19 +2957,19 @@
         <v>1279159</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1266688</v>
+        <v>1267143</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1286042</v>
+        <v>1286558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9874236287732727</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9777970233814569</v>
+        <v>0.978147824287294</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.992736950888425</v>
+        <v>0.9931354255705525</v>
       </c>
     </row>
     <row r="9">
@@ -3061,19 +3061,19 @@
         <v>23613</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14858</v>
+        <v>15769</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34667</v>
+        <v>35779</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03472204382378965</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02184863237528431</v>
+        <v>0.02318833117837922</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05097734161298167</v>
+        <v>0.05261238642548765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -3082,19 +3082,19 @@
         <v>19103</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11922</v>
+        <v>11292</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28710</v>
+        <v>28813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02705992514707948</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01688817499610494</v>
+        <v>0.01599574956404437</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04066967348839048</v>
+        <v>0.04081550277632068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -3103,19 +3103,19 @@
         <v>42715</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31833</v>
+        <v>31203</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58443</v>
+        <v>57919</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03081944435761581</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02296781886792425</v>
+        <v>0.0225133608914784</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04216688433635408</v>
+        <v>0.04178910799770125</v>
       </c>
     </row>
     <row r="11">
@@ -3132,19 +3132,19 @@
         <v>656441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>645387</v>
+        <v>644275</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>665196</v>
+        <v>664285</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9652779561762104</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9490226583870185</v>
+        <v>0.9473876135745125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9781513676247158</v>
+        <v>0.9768116688216208</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -3153,19 +3153,19 @@
         <v>686832</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>677225</v>
+        <v>677122</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>694013</v>
+        <v>694643</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9729400748529206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9593303265116095</v>
+        <v>0.9591844972236793</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.983111825003895</v>
+        <v>0.9840042504359556</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1271</v>
@@ -3174,19 +3174,19 @@
         <v>1343274</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1327546</v>
+        <v>1328070</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1354156</v>
+        <v>1354786</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9691805556423841</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9578331156636459</v>
+        <v>0.9582108920022988</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9770321811320758</v>
+        <v>0.9774866391085217</v>
       </c>
     </row>
     <row r="12">
@@ -3278,19 +3278,19 @@
         <v>49336</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36560</v>
+        <v>36368</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64258</v>
+        <v>65240</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08027183373533124</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05948382873969648</v>
+        <v>0.05917186203570214</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1045502897425309</v>
+        <v>0.1061466189990696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -3299,19 +3299,19 @@
         <v>56075</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41754</v>
+        <v>42748</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73159</v>
+        <v>72915</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09131664755640075</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06799546661334539</v>
+        <v>0.06961378017639142</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1191375959799798</v>
+        <v>0.1187403255259881</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -3320,19 +3320,19 @@
         <v>105411</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>84357</v>
+        <v>86785</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>128271</v>
+        <v>126645</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08579179505403683</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06865579951557421</v>
+        <v>0.07063182638963492</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1043964955537761</v>
+        <v>0.1030731997279167</v>
       </c>
     </row>
     <row r="14">
@@ -3349,19 +3349,19 @@
         <v>565281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>550359</v>
+        <v>549377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>578057</v>
+        <v>578249</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9197281662646688</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8954497102574691</v>
+        <v>0.8938533810009303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9405161712603035</v>
+        <v>0.9408281379642972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>490</v>
@@ -3370,19 +3370,19 @@
         <v>557997</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>540913</v>
+        <v>541157</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>572318</v>
+        <v>571324</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9086833524435992</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8808624040200203</v>
+        <v>0.8812596744740122</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9320045333866547</v>
+        <v>0.9303862198236087</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>993</v>
@@ -3391,19 +3391,19 @@
         <v>1123278</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1100418</v>
+        <v>1102044</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1144332</v>
+        <v>1141904</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9142082049459631</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8956035044462237</v>
+        <v>0.8969268002720835</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9313442004844258</v>
+        <v>0.9293681736103652</v>
       </c>
     </row>
     <row r="15">
@@ -3495,19 +3495,19 @@
         <v>83133</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65561</v>
+        <v>66062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>101972</v>
+        <v>101968</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1944481663702019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1533472036692375</v>
+        <v>0.154519426420155</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2385140993042224</v>
+        <v>0.2385053596778722</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>94</v>
@@ -3516,19 +3516,19 @@
         <v>102117</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85058</v>
+        <v>85657</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>121823</v>
+        <v>121515</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2285475715291843</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.190369577378609</v>
+        <v>0.1917100201616798</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2726517706511061</v>
+        <v>0.2719620896875461</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>168</v>
@@ -3537,19 +3537,19 @@
         <v>185249</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>162017</v>
+        <v>161168</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>212149</v>
+        <v>213190</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2118737567135893</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1853023799456703</v>
+        <v>0.1843312569420228</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2426392092237089</v>
+        <v>0.243830263267435</v>
       </c>
     </row>
     <row r="17">
@@ -3566,19 +3566,19 @@
         <v>344398</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>325559</v>
+        <v>325563</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>361970</v>
+        <v>361469</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8055518336297981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7614859006957777</v>
+        <v>0.7614946403221269</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8466527963307624</v>
+        <v>0.8454805735798446</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>311</v>
@@ -3587,19 +3587,19 @@
         <v>344690</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>324984</v>
+        <v>325292</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>361749</v>
+        <v>361150</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7714524284708156</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7273482293488935</v>
+        <v>0.728037910312454</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.809630422621391</v>
+        <v>0.8082899798383203</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>628</v>
@@ -3608,19 +3608,19 @@
         <v>689089</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>662189</v>
+        <v>661148</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>712321</v>
+        <v>713170</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7881262432864107</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7573607907762908</v>
+        <v>0.7561697367325649</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8146976200543297</v>
+        <v>0.8156687430579771</v>
       </c>
     </row>
     <row r="18">
@@ -3712,19 +3712,19 @@
         <v>106453</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>90408</v>
+        <v>90398</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>126398</v>
+        <v>125471</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3436335162209867</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2918396990855146</v>
+        <v>0.2918066711389742</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4080158612227356</v>
+        <v>0.4050262716222555</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>111</v>
@@ -3733,19 +3733,19 @@
         <v>115448</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>97744</v>
+        <v>97589</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>133795</v>
+        <v>133573</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3261291280812819</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2761167633428954</v>
+        <v>0.2756792867470246</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3779566529137785</v>
+        <v>0.3773295907897371</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>208</v>
@@ -3754,19 +3754,19 @@
         <v>221901</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>196375</v>
+        <v>196679</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>248552</v>
+        <v>247818</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3342984006528076</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2958420094112246</v>
+        <v>0.2963011367835159</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3744482115728745</v>
+        <v>0.3733423481133739</v>
       </c>
     </row>
     <row r="20">
@@ -3783,19 +3783,19 @@
         <v>203333</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>183388</v>
+        <v>184315</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>219378</v>
+        <v>219388</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6563664837790133</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5919841387772644</v>
+        <v>0.5949737283777445</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7081603009144855</v>
+        <v>0.7081933288610258</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>233</v>
@@ -3804,19 +3804,19 @@
         <v>238548</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>220201</v>
+        <v>220423</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256252</v>
+        <v>256407</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6738708719187181</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6220433470862216</v>
+        <v>0.622670409210263</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7238832366571046</v>
+        <v>0.7243207132529754</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>418</v>
@@ -3825,19 +3825,19 @@
         <v>441881</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>415230</v>
+        <v>415964</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>467407</v>
+        <v>467103</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6657015993471924</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6255517884271254</v>
+        <v>0.6266576518866261</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7041579905887754</v>
+        <v>0.703698863216484</v>
       </c>
     </row>
     <row r="21">
@@ -3929,19 +3929,19 @@
         <v>78997</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64196</v>
+        <v>63742</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96053</v>
+        <v>94221</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3161776414168283</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2569357861154187</v>
+        <v>0.255118560096883</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3844416259103909</v>
+        <v>0.3771072214684446</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>124</v>
@@ -3950,19 +3950,19 @@
         <v>136988</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>117335</v>
+        <v>117462</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>156898</v>
+        <v>156701</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3542352039856091</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.303414451285498</v>
+        <v>0.3037417596243807</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4057195371685963</v>
+        <v>0.4052095785849172</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>194</v>
@@ -3971,19 +3971,19 @@
         <v>215986</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>192871</v>
+        <v>192821</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>243490</v>
+        <v>240963</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3392977055308027</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3029855390386252</v>
+        <v>0.3029071933758941</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3825053636456385</v>
+        <v>0.3785358712541215</v>
       </c>
     </row>
     <row r="23">
@@ -4000,19 +4000,19 @@
         <v>170854</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>153798</v>
+        <v>155630</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>185655</v>
+        <v>186109</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6838223585831716</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6155583740896092</v>
+        <v>0.6228927785315554</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7430642138845817</v>
+        <v>0.7448814399031171</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>224</v>
@@ -4021,19 +4021,19 @@
         <v>249728</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>229818</v>
+        <v>230015</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>269381</v>
+        <v>269254</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6457647960143909</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5942804628314037</v>
+        <v>0.5947904214150829</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6965855487145021</v>
+        <v>0.6962582403756193</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>376</v>
@@ -4042,19 +4042,19 @@
         <v>420581</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>393077</v>
+        <v>395604</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>443696</v>
+        <v>443746</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6607022944691973</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6174946363543614</v>
+        <v>0.6214641287458786</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6970144609613753</v>
+        <v>0.6970928066241061</v>
       </c>
     </row>
     <row r="24">
@@ -4146,19 +4146,19 @@
         <v>351988</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>317467</v>
+        <v>316461</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>390306</v>
+        <v>391635</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1028848928827465</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09279444438169521</v>
+        <v>0.09250060057258822</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1140851299277312</v>
+        <v>0.1144735460232436</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>400</v>
@@ -4167,19 +4167,19 @@
         <v>435567</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>397144</v>
+        <v>394241</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>480695</v>
+        <v>475074</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1228306679169676</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1119952580726624</v>
+        <v>0.1111766981195295</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1355567187974031</v>
+        <v>0.1339714806560046</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>716</v>
@@ -4188,19 +4188,19 @@
         <v>787555</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>733289</v>
+        <v>733534</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>843619</v>
+        <v>847681</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1130365591394028</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.105247849121919</v>
+        <v>0.1052829263503196</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1210832459892789</v>
+        <v>0.1216662826989511</v>
       </c>
     </row>
     <row r="26">
@@ -4217,19 +4217,19 @@
         <v>3069193</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3030875</v>
+        <v>3029546</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3103714</v>
+        <v>3104720</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8971151071172535</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8859148700722688</v>
+        <v>0.8855264539767563</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9072055556183047</v>
+        <v>0.9074993994274118</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2887</v>
@@ -4238,19 +4238,19 @@
         <v>3110513</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3065385</v>
+        <v>3071006</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3148936</v>
+        <v>3151839</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8771693320830324</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8644432812025969</v>
+        <v>0.8660285193439952</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8880047419273387</v>
+        <v>0.8888233018804703</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5774</v>
@@ -4259,19 +4259,19 @@
         <v>6179706</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6123642</v>
+        <v>6119580</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6233972</v>
+        <v>6233727</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8869634408605972</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8789167540107211</v>
+        <v>0.8783337173010488</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8947521508780809</v>
+        <v>0.8947170736496803</v>
       </c>
     </row>
     <row r="27">
@@ -4775,19 +4775,19 @@
         <v>2966</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8852</v>
+        <v>7968</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005023738605314984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001521157544184565</v>
+        <v>0.0015225274319843</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01499076369248407</v>
+        <v>0.01349308971844558</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5110</v>
+        <v>5063</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001608737686208153</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009068346153403458</v>
+        <v>0.008983439657819073</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -4817,19 +4817,19 @@
         <v>3873</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9736</v>
+        <v>9711</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003356116782566143</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.000887011665617239</v>
+        <v>0.0008820467872134429</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008436445169242468</v>
+        <v>0.008415042199073307</v>
       </c>
     </row>
     <row r="8">
@@ -4846,19 +4846,19 @@
         <v>587530</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>581644</v>
+        <v>582528</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>589598</v>
+        <v>589597</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.994976261394685</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.985009236307516</v>
+        <v>0.9865069102815546</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9984788424558154</v>
+        <v>0.9984774725680157</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>578</v>
@@ -4867,7 +4867,7 @@
         <v>562637</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>558434</v>
+        <v>558481</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>563544</v>
@@ -4876,7 +4876,7 @@
         <v>0.9983912623137918</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9909316538465969</v>
+        <v>0.9910165603421813</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4888,19 +4888,19 @@
         <v>1150167</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1144304</v>
+        <v>1144329</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1153016</v>
+        <v>1153022</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9966438832174339</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9915635548307575</v>
+        <v>0.9915849578009265</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9991129883343828</v>
+        <v>0.9991179532127865</v>
       </c>
     </row>
     <row r="9">
@@ -4992,19 +4992,19 @@
         <v>19738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12067</v>
+        <v>12264</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30146</v>
+        <v>30634</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02950008086168557</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01803506671910871</v>
+        <v>0.01832923288983385</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04505540496263169</v>
+        <v>0.04578454863968365</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5013,19 +5013,19 @@
         <v>5555</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1981</v>
+        <v>2374</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12702</v>
+        <v>11881</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008398850174338911</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002995501645690106</v>
+        <v>0.003589499496676302</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01920577147560523</v>
+        <v>0.0179631714226307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -5034,19 +5034,19 @@
         <v>25293</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16720</v>
+        <v>16325</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37737</v>
+        <v>36363</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01901060841355857</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0125667044877957</v>
+        <v>0.01226992336654595</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02836329577037536</v>
+        <v>0.0273303536085883</v>
       </c>
     </row>
     <row r="11">
@@ -5063,19 +5063,19 @@
         <v>649359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>638951</v>
+        <v>638463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>657030</v>
+        <v>656833</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9704999191383145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9549445950373691</v>
+        <v>0.9542154513603163</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9819649332808914</v>
+        <v>0.9816707671101661</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>659</v>
@@ -5084,19 +5084,19 @@
         <v>655831</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>648684</v>
+        <v>649505</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>659405</v>
+        <v>659012</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9916011498256611</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9807942285243947</v>
+        <v>0.9820368285773704</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9970044983543098</v>
+        <v>0.9964105005033311</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1279</v>
@@ -5105,19 +5105,19 @@
         <v>1305190</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1292746</v>
+        <v>1294120</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1313763</v>
+        <v>1314158</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9809893915864414</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.971636704229625</v>
+        <v>0.9726696463914116</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9874332955122045</v>
+        <v>0.987730076633454</v>
       </c>
     </row>
     <row r="12">
@@ -5209,19 +5209,19 @@
         <v>48578</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35096</v>
+        <v>36361</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64102</v>
+        <v>64226</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07519305402833822</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0543235133882099</v>
+        <v>0.05628232617352696</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09922188609636313</v>
+        <v>0.09941298378945013</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -5230,19 +5230,19 @@
         <v>51178</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38967</v>
+        <v>37674</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68896</v>
+        <v>65833</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07884796125455505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06003395568795685</v>
+        <v>0.05804194688076824</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1061439177033893</v>
+        <v>0.1014262335401804</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -5251,19 +5251,19 @@
         <v>99757</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79669</v>
+        <v>82003</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>119419</v>
+        <v>119629</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07702478112827782</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06151458065586284</v>
+        <v>0.06331656295657322</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0922068231824958</v>
+        <v>0.09236850683130633</v>
       </c>
     </row>
     <row r="14">
@@ -5280,19 +5280,19 @@
         <v>597470</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>581946</v>
+        <v>581822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>610952</v>
+        <v>609687</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9248069459716618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9007781139036369</v>
+        <v>0.9005870162105499</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9456764866117902</v>
+        <v>0.9437176738264731</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>553</v>
@@ -5301,19 +5301,19 @@
         <v>597899</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>580181</v>
+        <v>583244</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>610110</v>
+        <v>611403</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9211520387454449</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.893856082296611</v>
+        <v>0.8985737664598191</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9399660443120432</v>
+        <v>0.9419580531192318</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1091</v>
@@ -5322,19 +5322,19 @@
         <v>1195368</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1175706</v>
+        <v>1175496</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1215456</v>
+        <v>1213122</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9229752188717222</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9077931768175043</v>
+        <v>0.9076314931686936</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9384854193441372</v>
+        <v>0.9366834370434268</v>
       </c>
     </row>
     <row r="15">
@@ -5426,19 +5426,19 @@
         <v>74416</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58199</v>
+        <v>60635</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92264</v>
+        <v>91804</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1557093704580109</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1217755180284705</v>
+        <v>0.1268742017282881</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1930543976792866</v>
+        <v>0.1920906581501017</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -5447,19 +5447,19 @@
         <v>100663</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84024</v>
+        <v>83098</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>121513</v>
+        <v>120613</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.202602851156823</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1691145251608425</v>
+        <v>0.1672503554636861</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.244567586740643</v>
+        <v>0.2427568081326228</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>154</v>
@@ -5468,19 +5468,19 @@
         <v>175079</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>149561</v>
+        <v>151486</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>200432</v>
+        <v>202437</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1796114712268488</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1534328658328391</v>
+        <v>0.1554071709223283</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2056200856233403</v>
+        <v>0.2076777297530368</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>403502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>385654</v>
+        <v>386114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>419719</v>
+        <v>417283</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8442906295419891</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8069456023207134</v>
+        <v>0.8079093418498982</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8782244819715296</v>
+        <v>0.8731257982717111</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>345</v>
@@ -5518,19 +5518,19 @@
         <v>396186</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>375336</v>
+        <v>376236</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>412825</v>
+        <v>413751</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.797397148843177</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7554324132593569</v>
+        <v>0.7572431918673771</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8308854748391574</v>
+        <v>0.8327496445363139</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>703</v>
@@ -5539,19 +5539,19 @@
         <v>799688</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>774335</v>
+        <v>772330</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>825206</v>
+        <v>823281</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8203885287731513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7943799143766598</v>
+        <v>0.7923222702469632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8465671341671609</v>
+        <v>0.8445928290776716</v>
       </c>
     </row>
     <row r="18">
@@ -5643,19 +5643,19 @@
         <v>98767</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82553</v>
+        <v>82272</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>116277</v>
+        <v>115242</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2954180141551651</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2469208378461656</v>
+        <v>0.2460788765748655</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3477916089235167</v>
+        <v>0.3446948308302996</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -5664,19 +5664,19 @@
         <v>106663</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>89476</v>
+        <v>88452</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>124536</v>
+        <v>125354</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2823556941117132</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.236857470927457</v>
+        <v>0.2341479882500752</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3296680535236194</v>
+        <v>0.3318334653401879</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>198</v>
@@ -5685,19 +5685,19 @@
         <v>205430</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183898</v>
+        <v>182732</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>230571</v>
+        <v>229713</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2884885048125163</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2582498378767161</v>
+        <v>0.2566128305398254</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3237940009879346</v>
+        <v>0.3225889718849807</v>
       </c>
     </row>
     <row r="20">
@@ -5714,19 +5714,19 @@
         <v>235563</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>218053</v>
+        <v>219088</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>251777</v>
+        <v>252058</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7045819858448349</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6522083910764831</v>
+        <v>0.6553051691697005</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7530791621538342</v>
+        <v>0.7539211234251346</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -5735,19 +5735,19 @@
         <v>271099</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>253226</v>
+        <v>252408</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>288286</v>
+        <v>289310</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7176443058882869</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6703319464763804</v>
+        <v>0.6681665346598119</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.763142529072543</v>
+        <v>0.7658520117499247</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>481</v>
@@ -5756,19 +5756,19 @@
         <v>506662</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>481521</v>
+        <v>482379</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>528194</v>
+        <v>529360</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7115114951874837</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6762059990120645</v>
+        <v>0.6774110281150194</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7417501621232838</v>
+        <v>0.7433871694601747</v>
       </c>
     </row>
     <row r="21">
@@ -5860,19 +5860,19 @@
         <v>74096</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62051</v>
+        <v>62414</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88048</v>
+        <v>87825</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2883148313077039</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2414455735658737</v>
+        <v>0.242859560187723</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3426003873403508</v>
+        <v>0.3417323817847335</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>94</v>
@@ -5881,19 +5881,19 @@
         <v>124985</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>105450</v>
+        <v>104012</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147582</v>
+        <v>145341</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.312329872961752</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2635141675842617</v>
+        <v>0.2599197501322109</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3687989434683022</v>
+        <v>0.3631984255299936</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>183</v>
@@ -5902,19 +5902,19 @@
         <v>199081</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>173519</v>
+        <v>176822</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>223450</v>
+        <v>222604</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.302938321505382</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2640410102254844</v>
+        <v>0.2690671378076268</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3400203032901564</v>
+        <v>0.3387332054106112</v>
       </c>
     </row>
     <row r="23">
@@ -5931,19 +5931,19 @@
         <v>182902</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>168950</v>
+        <v>169173</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>194947</v>
+        <v>194584</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.711685168692296</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6573996126596496</v>
+        <v>0.6582676182152664</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7585544264341264</v>
+        <v>0.7571404398122771</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>207</v>
@@ -5952,19 +5952,19 @@
         <v>275184</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>252587</v>
+        <v>254828</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>294719</v>
+        <v>296157</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.687670127038248</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6312010565316978</v>
+        <v>0.6368015744700064</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7364858324157383</v>
+        <v>0.7400802498677891</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>420</v>
@@ -5973,19 +5973,19 @@
         <v>458086</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>433717</v>
+        <v>434563</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>483648</v>
+        <v>480345</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.697061678494618</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6599796967098437</v>
+        <v>0.6612667945893889</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7359589897745158</v>
+        <v>0.7309328621923733</v>
       </c>
     </row>
     <row r="24">
@@ -6077,19 +6077,19 @@
         <v>318563</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>285667</v>
+        <v>286296</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>353452</v>
+        <v>355487</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09385094936402504</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08415955811630285</v>
+        <v>0.0843449968116326</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1041296435324329</v>
+        <v>0.1047290231253397</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>339</v>
@@ -6098,19 +6098,19 @@
         <v>389951</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>350218</v>
+        <v>353871</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>431033</v>
+        <v>432705</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1100144630027955</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09880474789283292</v>
+        <v>0.09983557221183989</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1216046031479011</v>
+        <v>0.1220763438412802</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>656</v>
@@ -6119,19 +6119,19 @@
         <v>708514</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>659248</v>
+        <v>660251</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>760668</v>
+        <v>755557</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1021076350307065</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09500765199792503</v>
+        <v>0.09515225705018535</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.109623882212</v>
+        <v>0.1088872556888368</v>
       </c>
     </row>
     <row r="26">
@@ -6148,19 +6148,19 @@
         <v>3075787</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3040898</v>
+        <v>3038863</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3108683</v>
+        <v>3108054</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.906149050635975</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8958703564675671</v>
+        <v>0.8952709768746601</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9158404418836972</v>
+        <v>0.9156550031883671</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2999</v>
@@ -6169,19 +6169,19 @@
         <v>3154591</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3113509</v>
+        <v>3111837</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3194324</v>
+        <v>3190671</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8899855369972045</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8783953968520989</v>
+        <v>0.8779236561587196</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.901195252107167</v>
+        <v>0.9001644277881599</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5913</v>
@@ -6190,19 +6190,19 @@
         <v>6230378</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6178224</v>
+        <v>6183335</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6279644</v>
+        <v>6278641</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8978923649692935</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8903761177880001</v>
+        <v>0.8911127443111632</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.904992348002075</v>
+        <v>0.9048477429498146</v>
       </c>
     </row>
     <row r="27">
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13358</v>
+        <v>13947</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008654388966129139</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03684789743221557</v>
+        <v>0.03847420915741947</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -6574,16 +6574,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12197</v>
+        <v>11657</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00407282762412105</v>
+        <v>0.004072827624121049</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0158338940213855</v>
+        <v>0.01513299117808579</v>
       </c>
     </row>
     <row r="5">
@@ -6613,16 +6613,16 @@
         <v>359375</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>349154</v>
+        <v>348565</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9913456110338709</v>
+        <v>0.9913456110338708</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9631521025677882</v>
+        <v>0.9615257908425804</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6634,16 +6634,16 @@
         <v>767168</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>758108</v>
+        <v>758648</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9959271723758789</v>
+        <v>0.9959271723758788</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9841661059786144</v>
+        <v>0.9848670088219139</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6204</v>
+        <v>7712</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002861599088971093</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01300961784407642</v>
+        <v>0.0161713415154149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -6759,19 +6759,19 @@
         <v>4233</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1014</v>
+        <v>1181</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10178</v>
+        <v>10475</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008447665171672608</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00202385076192621</v>
+        <v>0.002356736555427383</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02031189100228259</v>
+        <v>0.02090413094204545</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -6780,19 +6780,19 @@
         <v>5598</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2037</v>
+        <v>2091</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12779</v>
+        <v>12674</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005723725382180585</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002082454172549454</v>
+        <v>0.002137669397521622</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01306644280680319</v>
+        <v>0.01295969152559816</v>
       </c>
     </row>
     <row r="8">
@@ -6809,7 +6809,7 @@
         <v>475525</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>470686</v>
+        <v>469178</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
@@ -6818,7 +6818,7 @@
         <v>0.9971384009110289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9869903821559227</v>
+        <v>0.983828658484584</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6830,19 +6830,19 @@
         <v>496850</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>490905</v>
+        <v>490608</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>500069</v>
+        <v>499902</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9915523348283272</v>
+        <v>0.9915523348283274</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9796881089977173</v>
+        <v>0.9790958690579545</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9979761492380738</v>
+        <v>0.9976432634445724</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>757</v>
@@ -6851,19 +6851,19 @@
         <v>972375</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>965194</v>
+        <v>965299</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>975936</v>
+        <v>975882</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9942762746178195</v>
+        <v>0.9942762746178194</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9869335571931968</v>
+        <v>0.9870403084744019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9979175458274505</v>
+        <v>0.9978623306024783</v>
       </c>
     </row>
     <row r="9">
@@ -6955,19 +6955,19 @@
         <v>20263</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12899</v>
+        <v>12508</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31380</v>
+        <v>31677</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03263894753254256</v>
+        <v>0.03263894753254257</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02077750906806832</v>
+        <v>0.020147129593123</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05054521854873375</v>
+        <v>0.05102247067726106</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -6976,19 +6976,19 @@
         <v>8088</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4037</v>
+        <v>4389</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13369</v>
+        <v>13766</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01300011721871984</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006489431988630672</v>
+        <v>0.00705414518993239</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02148808619212911</v>
+        <v>0.02212652106056592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -6997,19 +6997,19 @@
         <v>28351</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19430</v>
+        <v>19333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40084</v>
+        <v>40565</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02280924329078166</v>
+        <v>0.02280924329078165</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0156321222848092</v>
+        <v>0.0155541069303412</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03224877840934661</v>
+        <v>0.03263551947844678</v>
       </c>
     </row>
     <row r="11">
@@ -7026,19 +7026,19 @@
         <v>600574</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>589457</v>
+        <v>589160</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>607938</v>
+        <v>608329</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9673610524674574</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9494547814512674</v>
+        <v>0.948977529322739</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9792224909319318</v>
+        <v>0.979852870406877</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>834</v>
@@ -7047,19 +7047,19 @@
         <v>614051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>608770</v>
+        <v>608373</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>618102</v>
+        <v>617750</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9869998827812801</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9785119138078709</v>
+        <v>0.9778734789394341</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9935105680113692</v>
+        <v>0.9929458548100677</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1362</v>
@@ -7068,19 +7068,19 @@
         <v>1214625</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1202892</v>
+        <v>1202411</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1223546</v>
+        <v>1223643</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9771907567092185</v>
+        <v>0.9771907567092183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9677512215906534</v>
+        <v>0.9673644805215531</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9843678777151909</v>
+        <v>0.9844458930696588</v>
       </c>
     </row>
     <row r="12">
@@ -7172,19 +7172,19 @@
         <v>63686</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50156</v>
+        <v>50299</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81024</v>
+        <v>80154</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0909002080525094</v>
+        <v>0.09090020805250938</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0715886366574478</v>
+        <v>0.07179176589807912</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.115646348074421</v>
+        <v>0.1144042040235187</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -7193,19 +7193,19 @@
         <v>43363</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34086</v>
+        <v>34467</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54288</v>
+        <v>53933</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0588459914291532</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04625696663922159</v>
+        <v>0.04677433190351717</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07367250518447906</v>
+        <v>0.07319054258804766</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -7214,19 +7214,19 @@
         <v>107049</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90346</v>
+        <v>90374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>128434</v>
+        <v>127506</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07446872463151219</v>
+        <v>0.0744687246315122</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06284932781745343</v>
+        <v>0.06286870246995295</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08934514086164584</v>
+        <v>0.08869966298724244</v>
       </c>
     </row>
     <row r="14">
@@ -7243,19 +7243,19 @@
         <v>636931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>619593</v>
+        <v>620463</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>650461</v>
+        <v>650318</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9090997919474908</v>
+        <v>0.9090997919474906</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.884353651925579</v>
+        <v>0.885595795976481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9284113633425521</v>
+        <v>0.9282082341019203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1073</v>
@@ -7264,19 +7264,19 @@
         <v>693523</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>682598</v>
+        <v>682953</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>702800</v>
+        <v>702419</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9411540085708469</v>
+        <v>0.9411540085708467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.926327494815521</v>
+        <v>0.9268094574119523</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9537430333607784</v>
+        <v>0.9532256680964828</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1676</v>
@@ -7285,19 +7285,19 @@
         <v>1330455</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1309070</v>
+        <v>1309998</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1347158</v>
+        <v>1347130</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9255312753684878</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9106548591383541</v>
+        <v>0.9113003370127576</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9371506721825464</v>
+        <v>0.9371312975300471</v>
       </c>
     </row>
     <row r="15">
@@ -7389,19 +7389,19 @@
         <v>116920</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>99511</v>
+        <v>101014</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134809</v>
+        <v>136160</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1921898952857516</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1635725363179043</v>
+        <v>0.1660431652199582</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2215943234683734</v>
+        <v>0.2238157473203692</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>208</v>
@@ -7410,19 +7410,19 @@
         <v>124622</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>110164</v>
+        <v>109491</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>140452</v>
+        <v>139217</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2051561702482992</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1813559909832882</v>
+        <v>0.1802475903044091</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2312172811519131</v>
+        <v>0.2291826318799855</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>345</v>
@@ -7431,19 +7431,19 @@
         <v>241542</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>217095</v>
+        <v>219981</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>266063</v>
+        <v>266632</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1986681740598359</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1785603474744824</v>
+        <v>0.180934419127945</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2188366603333761</v>
+        <v>0.219304269087964</v>
       </c>
     </row>
     <row r="17">
@@ -7460,19 +7460,19 @@
         <v>491439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>473550</v>
+        <v>472199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508848</v>
+        <v>507345</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8078101047142484</v>
+        <v>0.8078101047142485</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7784056765316267</v>
+        <v>0.7761842526796309</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8364274636820958</v>
+        <v>0.8339568347800417</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>792</v>
@@ -7481,19 +7481,19 @@
         <v>482826</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>466996</v>
+        <v>468231</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>497284</v>
+        <v>497957</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7948438297517006</v>
+        <v>0.7948438297517008</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7687827188480868</v>
+        <v>0.7708173681200146</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8186440090167121</v>
+        <v>0.8197524096955912</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1317</v>
@@ -7502,19 +7502,19 @@
         <v>974265</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>949744</v>
+        <v>949175</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>998712</v>
+        <v>995826</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8013318259401642</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7811633396666243</v>
+        <v>0.7806957309120359</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8214396525255179</v>
+        <v>0.8190655808720551</v>
       </c>
     </row>
     <row r="18">
@@ -7606,19 +7606,19 @@
         <v>111454</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96668</v>
+        <v>97002</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>127475</v>
+        <v>127136</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2737886869326077</v>
+        <v>0.2737886869326076</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2374669423561452</v>
+        <v>0.2382875226415781</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3131441456611257</v>
+        <v>0.3123127818836686</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>272</v>
@@ -7627,19 +7627,19 @@
         <v>143186</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>127839</v>
+        <v>128977</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>157580</v>
+        <v>157325</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3260398482016464</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2910943483444003</v>
+        <v>0.2936873049215289</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3588166048696755</v>
+        <v>0.3582352902639014</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>435</v>
@@ -7648,19 +7648,19 @@
         <v>254640</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>234941</v>
+        <v>236271</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>277144</v>
+        <v>275192</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3009048511994261</v>
+        <v>0.3009048511994262</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2776278361025214</v>
+        <v>0.2791985998861095</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.327498024463433</v>
+        <v>0.3251913304045596</v>
       </c>
     </row>
     <row r="20">
@@ -7677,19 +7677,19 @@
         <v>295626</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>279605</v>
+        <v>279944</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>310412</v>
+        <v>310078</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7262113130673924</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6868558543388742</v>
+        <v>0.6876872181163316</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.762533057643855</v>
+        <v>0.761712477358422</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>555</v>
@@ -7698,19 +7698,19 @@
         <v>295980</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>281586</v>
+        <v>281841</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>311327</v>
+        <v>310189</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6739601517983537</v>
+        <v>0.6739601517983536</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6411833951303244</v>
+        <v>0.6417647097360986</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7089056516555996</v>
+        <v>0.7063126950784709</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>962</v>
@@ -7719,19 +7719,19 @@
         <v>591606</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>569102</v>
+        <v>571054</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>611305</v>
+        <v>609975</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6990951488005738</v>
+        <v>0.699095148800574</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6725019755365665</v>
+        <v>0.6748086695954404</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7223721638974787</v>
+        <v>0.7208014001138908</v>
       </c>
     </row>
     <row r="21">
@@ -7823,19 +7823,19 @@
         <v>109806</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>95921</v>
+        <v>96007</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>124826</v>
+        <v>123646</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3539873546386071</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3092260576184062</v>
+        <v>0.3095026819273854</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4024081637479645</v>
+        <v>0.3986025668028654</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>378</v>
@@ -7844,19 +7844,19 @@
         <v>191701</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>175194</v>
+        <v>177301</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>207232</v>
+        <v>207115</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4136750246506193</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3780546385455997</v>
+        <v>0.3826001601970225</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4471899626637736</v>
+        <v>0.4469365545264016</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>549</v>
@@ -7865,19 +7865,19 @@
         <v>301507</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>280989</v>
+        <v>280346</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>322359</v>
+        <v>320992</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3897416960657321</v>
+        <v>0.3897416960657322</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3632189610758248</v>
+        <v>0.3623872898961729</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4166955510401056</v>
+        <v>0.414928334438775</v>
       </c>
     </row>
     <row r="23">
@@ -7894,19 +7894,19 @@
         <v>200392</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>185372</v>
+        <v>186552</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>214277</v>
+        <v>214191</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6460126453613928</v>
+        <v>0.6460126453613927</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5975918362520355</v>
+        <v>0.6013974331971339</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.690773942381594</v>
+        <v>0.6904973180726144</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>501</v>
@@ -7915,19 +7915,19 @@
         <v>271709</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>256178</v>
+        <v>256295</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>288216</v>
+        <v>286109</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5863249753493808</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5528100373362264</v>
+        <v>0.5530634454735984</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6219453614544004</v>
+        <v>0.6173998398029775</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>788</v>
@@ -7936,19 +7936,19 @@
         <v>472101</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>451249</v>
+        <v>452616</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>492619</v>
+        <v>493262</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6102583039342677</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5833044489598944</v>
+        <v>0.585071665561225</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6367810389241751</v>
+        <v>0.6376127101038273</v>
       </c>
     </row>
     <row r="24">
@@ -8040,19 +8040,19 @@
         <v>423495</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>389253</v>
+        <v>387344</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>458956</v>
+        <v>460076</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.11990995586167</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1102144921849681</v>
+        <v>0.1096740802742392</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1299504596032464</v>
+        <v>0.1302675119909749</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>944</v>
@@ -8061,19 +8061,19 @@
         <v>518329</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>486520</v>
+        <v>488713</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>551456</v>
+        <v>553670</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1388638391526295</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1303419372563774</v>
+        <v>0.1309294497317474</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1477387047118719</v>
+        <v>0.1483317118681589</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1496</v>
@@ -8082,19 +8082,19 @@
         <v>941824</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>891102</v>
+        <v>893162</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>989330</v>
+        <v>994226</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1296489464831197</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1226666724310728</v>
+        <v>0.1229501971917022</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1361884414991504</v>
+        <v>0.136862421940205</v>
       </c>
     </row>
     <row r="26">
@@ -8111,19 +8111,19 @@
         <v>3108280</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3072819</v>
+        <v>3071699</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3142522</v>
+        <v>3144431</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.88009004413833</v>
+        <v>0.8800900441383299</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8700495403967531</v>
+        <v>0.8697324880090249</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8897855078150316</v>
+        <v>0.8903259197257609</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4416</v>
@@ -8132,19 +8132,19 @@
         <v>3214316</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3181189</v>
+        <v>3178975</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3246125</v>
+        <v>3243932</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8611361608473705</v>
+        <v>0.8611361608473703</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.852261295288128</v>
+        <v>0.851668288131841</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8696580627436225</v>
+        <v>0.8690705502682525</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7239</v>
@@ -8153,19 +8153,19 @@
         <v>6322595</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6275089</v>
+        <v>6270193</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6373317</v>
+        <v>6371257</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8703510535168804</v>
+        <v>0.8703510535168802</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8638115585008497</v>
+        <v>0.8631375780597952</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8773333275689273</v>
+        <v>0.8770498028082976</v>
       </c>
     </row>
     <row r="27">
